--- a/SPPSApi/Doc/Template/FS0309_DiaoDa.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_DiaoDa.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>担当</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>变更事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给资材企管课</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1215,7 +1219,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
@@ -1245,7 +1249,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="N2" s="46" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="O2" s="47"/>
       <c r="P2" s="48"/>
